--- a/3_2/cfrp2/3_2_cfrp2_SS.xlsx
+++ b/3_2/cfrp2/3_2_cfrp2_SS.xlsx
@@ -8,6 +8,9 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="まとめ" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3_2_c2_l10" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3_2_c2_l20" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3_2_c2_l30" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -50,6 +53,7 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -65,75 +69,826 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>3_2_c2_l10</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <scatterChart>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'3_2_c2_l10'!$C$2:$C$65</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'3_2_c2_l10'!$D$2:$D$65</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <axId val="10"/>
+        <axId val="20"/>
+      </scatterChart>
+      <valAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Strain [-]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Stress [MPa]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>10%</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <scatterChart>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'3_2_c2_l10'!$C$2:$C$6</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'3_2_c2_l10'!$D$2:$D$6</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <axId val="10"/>
+        <axId val="20"/>
+      </scatterChart>
+      <valAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Strain [-]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Stress [MPa]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>3_2_c2_l20</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <scatterChart>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'3_2_c2_l20'!$C$2:$C$62</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'3_2_c2_l20'!$D$2:$D$62</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <axId val="10"/>
+        <axId val="20"/>
+      </scatterChart>
+      <valAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Strain [-]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Stress [MPa]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>10%</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <scatterChart>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'3_2_c2_l20'!$C$2:$C$6</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'3_2_c2_l20'!$D$2:$D$6</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <axId val="10"/>
+        <axId val="20"/>
+      </scatterChart>
+      <valAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Strain [-]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Stress [MPa]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>3_2_c2_l30</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <scatterChart>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'3_2_c2_l30'!$C$2:$C$60</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'3_2_c2_l30'!$D$2:$D$60</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <axId val="10"/>
+        <axId val="20"/>
+      </scatterChart>
+      <valAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Strain [-]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Stress [MPa]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>10%</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <scatterChart>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'3_2_c2_l30'!$C$2:$C$5</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'3_2_c2_l30'!$D$2:$D$5</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <axId val="10"/>
+        <axId val="20"/>
+      </scatterChart>
+      <valAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Strain [-]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Stress [MPa]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>22</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="2" name="Chart 2"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>22</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="2" name="Chart 2"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>22</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="2" name="Chart 2"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -443,7 +1198,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,7 +1223,2811 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3_2_c2_l10</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>41.38114285714286</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4695.074013605442</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3_2_c2_l20</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>41.053</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4879.416326530612</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3_2_c2_l30</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>41.22971428571429</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5080.628571428571</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>TIME</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>FX</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>strain</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>stress</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>3_2\cfrp2\lap=10\3_2_c2_l10.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="B2" t="n">
+        <v>49.2983</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.00015</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7042614285714285</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>最大応力</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>41.38114285714286</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="B3" t="n">
+        <v>98.5966</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.408522857142857</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>ヤング率</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>4695.074013605442</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="B4" t="n">
+        <v>147.895</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0004499999999999999</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.112785714285714</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="B5" t="n">
+        <v>197.193</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0005999999999999999</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.817042857142857</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="B6" t="n">
+        <v>246.491</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0007499999999999999</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.5213</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="B7" t="n">
+        <v>295.79</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0008999999999999999</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.225571428571429</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="B8" t="n">
+        <v>345.086</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.00105</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4.9298</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="B9" t="n">
+        <v>394.375</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0012</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5.633928571428571</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="B10" t="n">
+        <v>443.657</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.00135</v>
+      </c>
+      <c r="D10" t="n">
+        <v>6.337957142857142</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="B11" t="n">
+        <v>492.928</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0015</v>
+      </c>
+      <c r="D11" t="n">
+        <v>7.041828571428572</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="B12" t="n">
+        <v>542.188</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.00165</v>
+      </c>
+      <c r="D12" t="n">
+        <v>7.745542857142857</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="B13" t="n">
+        <v>591.439</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.0018</v>
+      </c>
+      <c r="D13" t="n">
+        <v>8.44912857142857</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="B14" t="n">
+        <v>640.6799999999999</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.00195</v>
+      </c>
+      <c r="D14" t="n">
+        <v>9.152571428571427</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="B15" t="n">
+        <v>689.9109999999999</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.0021</v>
+      </c>
+      <c r="D15" t="n">
+        <v>9.855871428571428</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="B16" t="n">
+        <v>739.133</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.00225</v>
+      </c>
+      <c r="D16" t="n">
+        <v>10.55904285714286</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="B17" t="n">
+        <v>788.348</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.0024</v>
+      </c>
+      <c r="D17" t="n">
+        <v>11.26211428571428</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="B18" t="n">
+        <v>837.5549999999999</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.00255</v>
+      </c>
+      <c r="D18" t="n">
+        <v>11.96507142857143</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="B19" t="n">
+        <v>886.754</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.0027</v>
+      </c>
+      <c r="D19" t="n">
+        <v>12.66791428571429</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="B20" t="n">
+        <v>935.9450000000001</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.00285</v>
+      </c>
+      <c r="D20" t="n">
+        <v>13.37064285714286</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="B21" t="n">
+        <v>985.129</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="D21" t="n">
+        <v>14.07327142857143</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1034.31</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.00315</v>
+      </c>
+      <c r="D22" t="n">
+        <v>14.77585714285714</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1083.48</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.0033</v>
+      </c>
+      <c r="D23" t="n">
+        <v>15.47828571428571</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1132.64</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.00345</v>
+      </c>
+      <c r="D24" t="n">
+        <v>16.18057142857143</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1181.79</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.003599999999999999</v>
+      </c>
+      <c r="D25" t="n">
+        <v>16.88271428571429</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1230.93</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.00375</v>
+      </c>
+      <c r="D26" t="n">
+        <v>17.58471428571429</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1280.04</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.0039</v>
+      </c>
+      <c r="D27" t="n">
+        <v>18.28628571428571</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1329.03</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.00405</v>
+      </c>
+      <c r="D28" t="n">
+        <v>18.98614285714286</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1377.9</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.0042</v>
+      </c>
+      <c r="D29" t="n">
+        <v>19.68428571428571</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1426.68</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.00435</v>
+      </c>
+      <c r="D30" t="n">
+        <v>20.38114285714286</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1475.36</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.004500000000000001</v>
+      </c>
+      <c r="D31" t="n">
+        <v>21.07657142857143</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1523.98</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.00465</v>
+      </c>
+      <c r="D32" t="n">
+        <v>21.77114285714286</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1572.53</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.0048</v>
+      </c>
+      <c r="D33" t="n">
+        <v>22.46471428571429</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1621.02</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.00495</v>
+      </c>
+      <c r="D34" t="n">
+        <v>23.15742857142857</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1669.47</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.0051</v>
+      </c>
+      <c r="D35" t="n">
+        <v>23.84957142857143</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1717.88</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.00525</v>
+      </c>
+      <c r="D36" t="n">
+        <v>24.54114285714286</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1766.25</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.005399999999999999</v>
+      </c>
+      <c r="D37" t="n">
+        <v>25.23214285714286</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1814.57</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.00555</v>
+      </c>
+      <c r="D38" t="n">
+        <v>25.92242857142857</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1862.87</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.005699999999999999</v>
+      </c>
+      <c r="D39" t="n">
+        <v>26.61242857142857</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1911.15</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.00585</v>
+      </c>
+      <c r="D40" t="n">
+        <v>27.30214285714286</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1959.42</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.005999999999999999</v>
+      </c>
+      <c r="D41" t="n">
+        <v>27.99171428571429</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="B42" t="n">
+        <v>2007.68</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.006149999999999999</v>
+      </c>
+      <c r="D42" t="n">
+        <v>28.68114285714286</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="B43" t="n">
+        <v>2055.93</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.0063</v>
+      </c>
+      <c r="D43" t="n">
+        <v>29.37042857142857</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="B44" t="n">
+        <v>2104.16</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.00645</v>
+      </c>
+      <c r="D44" t="n">
+        <v>30.05942857142857</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="B45" t="n">
+        <v>2152.39</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.0066</v>
+      </c>
+      <c r="D45" t="n">
+        <v>30.74842857142857</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="B46" t="n">
+        <v>2200.6</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.00675</v>
+      </c>
+      <c r="D46" t="n">
+        <v>31.43714285714286</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>2248.8</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.006899999999999999</v>
+      </c>
+      <c r="D47" t="n">
+        <v>32.12571428571429</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="B48" t="n">
+        <v>2296.99</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.00705</v>
+      </c>
+      <c r="D48" t="n">
+        <v>32.81414285714285</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="B49" t="n">
+        <v>2345.15</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.007199999999999999</v>
+      </c>
+      <c r="D49" t="n">
+        <v>33.50214285714286</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="B50" t="n">
+        <v>2393.3</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.00735</v>
+      </c>
+      <c r="D50" t="n">
+        <v>34.19</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="B51" t="n">
+        <v>2441.44</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.0075</v>
+      </c>
+      <c r="D51" t="n">
+        <v>34.87771428571428</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="B52" t="n">
+        <v>2489.55</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.007650000000000001</v>
+      </c>
+      <c r="D52" t="n">
+        <v>35.565</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="B53" t="n">
+        <v>2537.65</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.007800000000000001</v>
+      </c>
+      <c r="D53" t="n">
+        <v>36.25214285714286</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="B54" t="n">
+        <v>2585.7</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.00795</v>
+      </c>
+      <c r="D54" t="n">
+        <v>36.93857142857143</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B55" t="n">
+        <v>2633.54</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.0081</v>
+      </c>
+      <c r="D55" t="n">
+        <v>37.622</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="B56" t="n">
+        <v>2680.99</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.008249999999999999</v>
+      </c>
+      <c r="D56" t="n">
+        <v>38.29985714285714</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="B57" t="n">
+        <v>2727.93</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.008399999999999999</v>
+      </c>
+      <c r="D57" t="n">
+        <v>38.97042857142857</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="B58" t="n">
+        <v>2774.68</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.008549999999999999</v>
+      </c>
+      <c r="D58" t="n">
+        <v>39.63828571428571</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="B59" t="n">
+        <v>2821.19</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.008699999999999999</v>
+      </c>
+      <c r="D59" t="n">
+        <v>40.30271428571429</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="B60" t="n">
+        <v>2865.67</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.00885</v>
+      </c>
+      <c r="D60" t="n">
+        <v>40.93814285714286</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B61" t="n">
+        <v>2896.68</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.009000000000000001</v>
+      </c>
+      <c r="D61" t="n">
+        <v>41.38114285714286</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="B62" t="n">
+        <v>2875.96</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.00915</v>
+      </c>
+      <c r="D62" t="n">
+        <v>41.08514285714286</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>0.9225</v>
+      </c>
+      <c r="B63" t="n">
+        <v>2835.53</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.009225000000000001</v>
+      </c>
+      <c r="D63" t="n">
+        <v>40.50757142857143</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="B64" t="n">
+        <v>2640.6</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="D64" t="n">
+        <v>37.72285714285714</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="B65" t="n">
+        <v>2642.91</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="D65" t="n">
+        <v>37.75585714285714</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>TIME</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>FX</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>strain</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>stress</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>3_2\cfrp2\lap=20\3_2_c2_l20.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="B2" t="n">
+        <v>51.2339</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.00015</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7319128571428571</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>最大応力</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>41.053</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="B3" t="n">
+        <v>102.468</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.463828571428571</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>ヤング率</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>4879.416326530612</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="B4" t="n">
+        <v>153.702</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0004499999999999999</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.195742857142857</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="B5" t="n">
+        <v>204.936</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0005999999999999999</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.927657142857143</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="B6" t="n">
+        <v>256.17</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0007499999999999999</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.659571428571429</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="B7" t="n">
+        <v>307.403</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0008999999999999999</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.391471428571429</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="B8" t="n">
+        <v>358.632</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.00105</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5.123314285714286</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="B9" t="n">
+        <v>409.852</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0012</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5.855028571428571</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="B10" t="n">
+        <v>461.062</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.00135</v>
+      </c>
+      <c r="D10" t="n">
+        <v>6.5866</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="B11" t="n">
+        <v>512.259</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0015</v>
+      </c>
+      <c r="D11" t="n">
+        <v>7.317985714285714</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="B12" t="n">
+        <v>563.443</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.00165</v>
+      </c>
+      <c r="D12" t="n">
+        <v>8.049185714285715</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="B13" t="n">
+        <v>614.616</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.0018</v>
+      </c>
+      <c r="D13" t="n">
+        <v>8.780228571428571</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="B14" t="n">
+        <v>665.778</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.00195</v>
+      </c>
+      <c r="D14" t="n">
+        <v>9.511114285714285</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="B15" t="n">
+        <v>716.929</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.0021</v>
+      </c>
+      <c r="D15" t="n">
+        <v>10.24184285714286</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="B16" t="n">
+        <v>768.0700000000001</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.00225</v>
+      </c>
+      <c r="D16" t="n">
+        <v>10.97242857142857</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="B17" t="n">
+        <v>819.203</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.0024</v>
+      </c>
+      <c r="D17" t="n">
+        <v>11.7029</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="B18" t="n">
+        <v>870.327</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.00255</v>
+      </c>
+      <c r="D18" t="n">
+        <v>12.43324285714286</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="B19" t="n">
+        <v>921.442</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.0027</v>
+      </c>
+      <c r="D19" t="n">
+        <v>13.16345714285714</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="B20" t="n">
+        <v>972.548</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.00285</v>
+      </c>
+      <c r="D20" t="n">
+        <v>13.89354285714286</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1023.65</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="D21" t="n">
+        <v>14.62357142857143</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1074.74</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.00315</v>
+      </c>
+      <c r="D22" t="n">
+        <v>15.35342857142857</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1125.82</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.0033</v>
+      </c>
+      <c r="D23" t="n">
+        <v>16.08314285714286</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1176.89</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.00345</v>
+      </c>
+      <c r="D24" t="n">
+        <v>16.81271428571429</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1227.95</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.003599999999999999</v>
+      </c>
+      <c r="D25" t="n">
+        <v>17.54214285714286</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1278.97</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.00375</v>
+      </c>
+      <c r="D26" t="n">
+        <v>18.271</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1329.88</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.0039</v>
+      </c>
+      <c r="D27" t="n">
+        <v>18.99828571428571</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1380.67</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.00405</v>
+      </c>
+      <c r="D28" t="n">
+        <v>19.72385714285715</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1431.37</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.0042</v>
+      </c>
+      <c r="D29" t="n">
+        <v>20.44814285714286</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1481.98</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.00435</v>
+      </c>
+      <c r="D30" t="n">
+        <v>21.17114285714286</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1532.52</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.004500000000000001</v>
+      </c>
+      <c r="D31" t="n">
+        <v>21.89314285714286</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1583</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.00465</v>
+      </c>
+      <c r="D32" t="n">
+        <v>22.61428571428571</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1633.44</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.0048</v>
+      </c>
+      <c r="D33" t="n">
+        <v>23.33485714285714</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1683.82</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.00495</v>
+      </c>
+      <c r="D34" t="n">
+        <v>24.05457142857143</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1734.17</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.0051</v>
+      </c>
+      <c r="D35" t="n">
+        <v>24.77385714285714</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1784.47</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.00525</v>
+      </c>
+      <c r="D36" t="n">
+        <v>25.49242857142857</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1834.74</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.005399999999999999</v>
+      </c>
+      <c r="D37" t="n">
+        <v>26.21057142857143</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1884.99</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.00555</v>
+      </c>
+      <c r="D38" t="n">
+        <v>26.92842857142857</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1935.22</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.005699999999999999</v>
+      </c>
+      <c r="D39" t="n">
+        <v>27.646</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1985.44</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.00585</v>
+      </c>
+      <c r="D40" t="n">
+        <v>28.36342857142857</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="B41" t="n">
+        <v>2035.65</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.005999999999999999</v>
+      </c>
+      <c r="D41" t="n">
+        <v>29.08071428571429</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="B42" t="n">
+        <v>2085.85</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.006149999999999999</v>
+      </c>
+      <c r="D42" t="n">
+        <v>29.79785714285714</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="B43" t="n">
+        <v>2136.03</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.0063</v>
+      </c>
+      <c r="D43" t="n">
+        <v>30.51471428571429</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="B44" t="n">
+        <v>2186.2</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.00645</v>
+      </c>
+      <c r="D44" t="n">
+        <v>31.23142857142857</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="B45" t="n">
+        <v>2236.36</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.0066</v>
+      </c>
+      <c r="D45" t="n">
+        <v>31.948</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="B46" t="n">
+        <v>2286.51</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.00675</v>
+      </c>
+      <c r="D46" t="n">
+        <v>32.66442857142857</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>2336.63</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.006899999999999999</v>
+      </c>
+      <c r="D47" t="n">
+        <v>33.38042857142857</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="B48" t="n">
+        <v>2386.74</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.00705</v>
+      </c>
+      <c r="D48" t="n">
+        <v>34.09628571428571</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="B49" t="n">
+        <v>2436.83</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.007199999999999999</v>
+      </c>
+      <c r="D49" t="n">
+        <v>34.81185714285714</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="B50" t="n">
+        <v>2486.9</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.00735</v>
+      </c>
+      <c r="D50" t="n">
+        <v>35.52714285714286</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="B51" t="n">
+        <v>2536.94</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.0075</v>
+      </c>
+      <c r="D51" t="n">
+        <v>36.242</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="B52" t="n">
+        <v>2586.92</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.007650000000000001</v>
+      </c>
+      <c r="D52" t="n">
+        <v>36.956</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="B53" t="n">
+        <v>2636.66</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.007800000000000001</v>
+      </c>
+      <c r="D53" t="n">
+        <v>37.66657142857142</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="B54" t="n">
+        <v>2685.99</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.00795</v>
+      </c>
+      <c r="D54" t="n">
+        <v>38.37128571428571</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B55" t="n">
+        <v>2734.87</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.0081</v>
+      </c>
+      <c r="D55" t="n">
+        <v>39.06957142857143</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="B56" t="n">
+        <v>2783.56</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.008249999999999999</v>
+      </c>
+      <c r="D56" t="n">
+        <v>39.76514285714286</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="B57" t="n">
+        <v>2831.98</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.008399999999999999</v>
+      </c>
+      <c r="D57" t="n">
+        <v>40.45685714285715</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="B58" t="n">
+        <v>2870.43</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.008549999999999999</v>
+      </c>
+      <c r="D58" t="n">
+        <v>41.00614285714286</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="B59" t="n">
+        <v>2873.71</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.008699999999999999</v>
+      </c>
+      <c r="D59" t="n">
+        <v>41.053</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>0.8774999999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>2853.9</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.008774999999999998</v>
+      </c>
+      <c r="D60" t="n">
+        <v>40.77</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="B61" t="n">
+        <v>2607.7</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.00885</v>
+      </c>
+      <c r="D61" t="n">
+        <v>37.25285714285714</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="B62" t="n">
+        <v>2610.8</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="D62" t="n">
+        <v>37.29714285714286</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>TIME</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>FX</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>strain</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>stress</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>3_2\cfrp2\lap=30\3_2_c2_l30.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="B2" t="n">
+        <v>53.3465</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.00015</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7620928571428571</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>最大応力</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>41.22971428571429</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="B3" t="n">
+        <v>106.693</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.524185714285714</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>ヤング率</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>5080.628571428571</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="B4" t="n">
+        <v>160.04</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0004499999999999999</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.286285714285714</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="B5" t="n">
+        <v>213.386</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0005999999999999999</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.048371428571429</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="B6" t="n">
+        <v>266.733</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0007499999999999999</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.810471428571429</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="B7" t="n">
+        <v>320.078</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0008999999999999999</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.572542857142857</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="B8" t="n">
+        <v>373.417</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.00105</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5.334528571428571</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="B9" t="n">
+        <v>426.746</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0012</v>
+      </c>
+      <c r="D9" t="n">
+        <v>6.096371428571429</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="B10" t="n">
+        <v>480.062</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.00135</v>
+      </c>
+      <c r="D10" t="n">
+        <v>6.858028571428572</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="B11" t="n">
+        <v>533.3630000000001</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0015</v>
+      </c>
+      <c r="D11" t="n">
+        <v>7.61947142857143</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="B12" t="n">
+        <v>586.651</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.00165</v>
+      </c>
+      <c r="D12" t="n">
+        <v>8.380728571428572</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="B13" t="n">
+        <v>639.926</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.0018</v>
+      </c>
+      <c r="D13" t="n">
+        <v>9.1418</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="B14" t="n">
+        <v>693.188</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.00195</v>
+      </c>
+      <c r="D14" t="n">
+        <v>9.902685714285715</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="B15" t="n">
+        <v>746.4400000000001</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.0021</v>
+      </c>
+      <c r="D15" t="n">
+        <v>10.66342857142857</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="B16" t="n">
+        <v>799.682</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.00225</v>
+      </c>
+      <c r="D16" t="n">
+        <v>11.42402857142857</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="B17" t="n">
+        <v>852.912</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.0024</v>
+      </c>
+      <c r="D17" t="n">
+        <v>12.18445714285714</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="B18" t="n">
+        <v>906.134</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.00255</v>
+      </c>
+      <c r="D18" t="n">
+        <v>12.94477142857143</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="B19" t="n">
+        <v>959.346</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.0027</v>
+      </c>
+      <c r="D19" t="n">
+        <v>13.70494285714286</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1012.55</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.00285</v>
+      </c>
+      <c r="D20" t="n">
+        <v>14.465</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1065.74</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="D21" t="n">
+        <v>15.22485714285714</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1118.93</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.00315</v>
+      </c>
+      <c r="D22" t="n">
+        <v>15.98471428571429</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1172.1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.0033</v>
+      </c>
+      <c r="D23" t="n">
+        <v>16.74428571428571</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1225.26</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.00345</v>
+      </c>
+      <c r="D24" t="n">
+        <v>17.50371428571428</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1278.38</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.003599999999999999</v>
+      </c>
+      <c r="D25" t="n">
+        <v>18.26257142857143</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1331.39</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.00375</v>
+      </c>
+      <c r="D26" t="n">
+        <v>19.01985714285714</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1384.29</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.0039</v>
+      </c>
+      <c r="D27" t="n">
+        <v>19.77557142857143</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1437.09</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.00405</v>
+      </c>
+      <c r="D28" t="n">
+        <v>20.52985714285714</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1489.81</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.0042</v>
+      </c>
+      <c r="D29" t="n">
+        <v>21.283</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1542.46</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.00435</v>
+      </c>
+      <c r="D30" t="n">
+        <v>22.03514285714286</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1595.06</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.004500000000000001</v>
+      </c>
+      <c r="D31" t="n">
+        <v>22.78657142857143</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1647.6</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.00465</v>
+      </c>
+      <c r="D32" t="n">
+        <v>23.53714285714286</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1700.1</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.0048</v>
+      </c>
+      <c r="D33" t="n">
+        <v>24.28714285714286</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1752.57</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.00495</v>
+      </c>
+      <c r="D34" t="n">
+        <v>25.03671428571429</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1804.99</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.0051</v>
+      </c>
+      <c r="D35" t="n">
+        <v>25.78557142857143</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1857.38</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.00525</v>
+      </c>
+      <c r="D36" t="n">
+        <v>26.534</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1909.76</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.005399999999999999</v>
+      </c>
+      <c r="D37" t="n">
+        <v>27.28228571428571</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1962.12</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.00555</v>
+      </c>
+      <c r="D38" t="n">
+        <v>28.03028571428571</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="B39" t="n">
+        <v>2014.47</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.005699999999999999</v>
+      </c>
+      <c r="D39" t="n">
+        <v>28.77814285714286</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="B40" t="n">
+        <v>2066.81</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.00585</v>
+      </c>
+      <c r="D40" t="n">
+        <v>29.52585714285714</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="B41" t="n">
+        <v>2119.13</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.005999999999999999</v>
+      </c>
+      <c r="D41" t="n">
+        <v>30.27328571428572</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="B42" t="n">
+        <v>2171.45</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.006149999999999999</v>
+      </c>
+      <c r="D42" t="n">
+        <v>31.02071428571428</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="B43" t="n">
+        <v>2223.75</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.0063</v>
+      </c>
+      <c r="D43" t="n">
+        <v>31.76785714285714</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="B44" t="n">
+        <v>2276.03</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.00645</v>
+      </c>
+      <c r="D44" t="n">
+        <v>32.51471428571429</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="B45" t="n">
+        <v>2328.29</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.0066</v>
+      </c>
+      <c r="D45" t="n">
+        <v>33.26128571428571</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="B46" t="n">
+        <v>2380.54</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.00675</v>
+      </c>
+      <c r="D46" t="n">
+        <v>34.00771428571429</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>2432.77</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.006899999999999999</v>
+      </c>
+      <c r="D47" t="n">
+        <v>34.75385714285714</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="B48" t="n">
+        <v>2484.97</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.00705</v>
+      </c>
+      <c r="D48" t="n">
+        <v>35.49957142857143</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="B49" t="n">
+        <v>2537.15</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.007199999999999999</v>
+      </c>
+      <c r="D49" t="n">
+        <v>36.245</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="B50" t="n">
+        <v>2589.25</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.00735</v>
+      </c>
+      <c r="D50" t="n">
+        <v>36.98928571428571</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="B51" t="n">
+        <v>2641.11</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.0075</v>
+      </c>
+      <c r="D51" t="n">
+        <v>37.73014285714286</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="B52" t="n">
+        <v>2692.56</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.007650000000000001</v>
+      </c>
+      <c r="D52" t="n">
+        <v>38.46514285714286</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="B53" t="n">
+        <v>2743.62</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.007800000000000001</v>
+      </c>
+      <c r="D53" t="n">
+        <v>39.19457142857143</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="B54" t="n">
+        <v>2794.47</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.00795</v>
+      </c>
+      <c r="D54" t="n">
+        <v>39.921</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B55" t="n">
+        <v>2845.05</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.0081</v>
+      </c>
+      <c r="D55" t="n">
+        <v>40.64357142857143</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="B56" t="n">
+        <v>2884.1</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.008249999999999999</v>
+      </c>
+      <c r="D56" t="n">
+        <v>41.20142857142857</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="B57" t="n">
+        <v>2886.08</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.008399999999999999</v>
+      </c>
+      <c r="D57" t="n">
+        <v>41.22971428571429</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>0.8475</v>
+      </c>
+      <c r="B58" t="n">
+        <v>2859.48</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.008475</v>
+      </c>
+      <c r="D58" t="n">
+        <v>40.84971428571428</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="B59" t="n">
+        <v>2597.71</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.008549999999999999</v>
+      </c>
+      <c r="D59" t="n">
+        <v>37.11014285714285</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="B60" t="n">
+        <v>2600.91</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="D60" t="n">
+        <v>37.15585714285714</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
 </file>